--- a/Resubmission/Supplementary_table1.xlsx
+++ b/Resubmission/Supplementary_table1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurde/Desktop/Git/EA_human_rabies_case_series/Resubmission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901B181D-A06D-F646-A313-B2D0F9A1C6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A27999-658D-B048-A14A-06ACC2E0E324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16580" xr2:uid="{8A784FD0-B905-6E41-B912-C9081F45A94C}"/>
   </bookViews>
@@ -2073,8 +2073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E87D4A-9BF3-A544-AD89-C82DF6753E32}">
   <dimension ref="A1:I362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
-      <selection activeCell="L366" sqref="L366"/>
+    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
+      <selection activeCell="A362" sqref="A362:I362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Resubmission/Supplementary_table1.xlsx
+++ b/Resubmission/Supplementary_table1.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurde/Desktop/Git/EA_human_rabies_case_series/Resubmission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katie/Documents/GitHub/EA_human_rabies_case_series/Resubmission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A27999-658D-B048-A14A-06ACC2E0E324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42634A7E-3EC4-564F-9068-5DE7C9C151B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16580" xr2:uid="{8A784FD0-B905-6E41-B912-C9081F45A94C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
+    <sheet name="SupplementaryTable1" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SupplementaryTable1!$A$1:$R$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1731,7 +1732,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1739,11 +1740,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1755,6 +1793,15 @@
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1775,9 +1822,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1815,7 +1862,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1921,7 +1968,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2063,7 +2110,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2071,20 +2118,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E87D4A-9BF3-A544-AD89-C82DF6753E32}">
-  <dimension ref="A1:I362"/>
+  <dimension ref="A1:R362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
       <selection activeCell="A362" sqref="A362:I362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.83203125" style="2"/>
-    <col min="6" max="6" width="18.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="2"/>
-    <col min="8" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="9" width="15.5" style="2" customWidth="1"/>
     <col min="10" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -12296,7 +12338,7 @@
         <v>98.03</v>
       </c>
     </row>
-    <row r="353" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A353" s="4" t="s">
         <v>372</v>
       </c>
@@ -12325,7 +12367,7 @@
         <v>98.04</v>
       </c>
     </row>
-    <row r="354" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A354" s="4" t="s">
         <v>374</v>
       </c>
@@ -12354,7 +12396,7 @@
         <v>96.59</v>
       </c>
     </row>
-    <row r="355" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A355" s="4" t="s">
         <v>376</v>
       </c>
@@ -12383,7 +12425,7 @@
         <v>98.03</v>
       </c>
     </row>
-    <row r="356" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A356" s="4" t="s">
         <v>378</v>
       </c>
@@ -12412,7 +12454,7 @@
         <v>98.03</v>
       </c>
     </row>
-    <row r="357" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A357" s="4" t="s">
         <v>380</v>
       </c>
@@ -12441,7 +12483,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="358" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A358" s="4" t="s">
         <v>382</v>
       </c>
@@ -12470,7 +12512,7 @@
         <v>98.01</v>
       </c>
     </row>
-    <row r="359" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A359" s="4" t="s">
         <v>384</v>
       </c>
@@ -12499,7 +12541,7 @@
         <v>97.99</v>
       </c>
     </row>
-    <row r="360" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A360" s="4" t="s">
         <v>386</v>
       </c>
@@ -12528,7 +12570,7 @@
         <v>98.02</v>
       </c>
     </row>
-    <row r="361" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:18" s="6" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A361" s="4" t="s">
         <v>388</v>
       </c>
@@ -12557,18 +12599,27 @@
         <v>98.07</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A362" s="7" t="s">
+    <row r="362" spans="1:18" ht="73" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="B362" s="8"/>
-      <c r="C362" s="8"/>
-      <c r="D362" s="8"/>
-      <c r="E362" s="8"/>
-      <c r="F362" s="8"/>
-      <c r="G362" s="8"/>
-      <c r="H362" s="8"/>
-      <c r="I362" s="8"/>
+      <c r="B362" s="10"/>
+      <c r="C362" s="10"/>
+      <c r="D362" s="10"/>
+      <c r="E362" s="10"/>
+      <c r="F362" s="10"/>
+      <c r="G362" s="10"/>
+      <c r="H362" s="10"/>
+      <c r="I362" s="11"/>
+      <c r="J362" s="7"/>
+      <c r="K362" s="8"/>
+      <c r="L362" s="8"/>
+      <c r="M362" s="8"/>
+      <c r="N362" s="8"/>
+      <c r="O362" s="8"/>
+      <c r="P362" s="8"/>
+      <c r="Q362" s="8"/>
+      <c r="R362" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:R1" xr:uid="{27E87D4A-9BF3-A544-AD89-C82DF6753E32}">
@@ -12582,4 +12633,16 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF571FE4-6CBB-894B-AAB5-ADEDE38A3931}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>